--- a/data/hotels_by_city/Dallas/Dallas_shard_151.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_151.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ricky R</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Dale S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r502243821-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>I moved to Dallas, and stayed in this hotel for 3 months while I looked for an apartment. I had a few problems while I was there, for example, a couple having a fight in the room next to me (not the hotels fault).  There are laundry facilities that are reasonably priced, and the Wifi does work rather well.  At the time, the front desk didn't carry quarters, so you would need to bring some.  At first I had a room on the first floor, so people were walking by the room talking loudly all night.  After that, I moved to the third floor and it was much quieter.  New room only had one pillow.  I asked for another one, and they said they were out, for the next two months I asked, and they were still out.More</t>
   </si>
   <si>
+    <t>Thaddeus3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r397098479-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The room I was in looked ok. Paint looked fresh. Carpet looked fairly new but a few things made me think otherwise of this place. I saw roaches in the bathroom. Thats a complete no no. I ask them to spray but I dont think they did. I saw some after I ask them. Another thing is they have a towel issue. Its ashame that hotel runs out of clean towels. To me thats unheard of and unprofessional. Lets you know its poorly ran or someone is just cutting corners. A few of my co workers were bitten by bed bugs and had to be relocated to another hotel. Awful!! More</t>
   </si>
   <si>
+    <t>Nicole A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r379801555-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Great! 5 stars. All of the staff made my stay very comfortable, the rooms were clean and the area was quiet and kid friendly. I got my deposit back in a timely manner with no problems. I enjoyed my stay here and I will be coming back ! Thank you!!!!!!</t>
   </si>
   <si>
+    <t>Albertbk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r377971752-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Regina W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r361005702-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>karis307</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r360077048-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Heather l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r359016520-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>can you believe it! we had booked a room at crossland economy suites online on hotwire and they ensured us we could check in at or after6am which hotel policyis 3pm checkins but the manager worked with us and got us in a room at about 11:30 also we were not informed by hotwire of need for 100$deposit and didnt not have it . the manager was kind enough to work with us here also we were able to stay !the whole ordeal both the front desk clerk and manager were helpful friendly and had great attitudes and made sure they satisfied the customers needs listened to our complaints with opened minds and id say definetley gained us as a regular customer! so for those of you who think customer service is dead and wish the old motto"the customer is always right" was practiced in todays business you should come see it in action at this motel!the rooms have small fridges and stovetops very clean and comfortable. we enjoyed the staff and our stay and may actaully stay longer term here! thank you crosslands staff!continue the great work!More</t>
   </si>
   <si>
+    <t>Tonya M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r358473584-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>Excellent place to stay. Tonya Lee Martinez Thank you. Clean rooms. Staff very helpful. No problems. Great weekly rates. Has kitchenette good got water. No problems with security issues. Very close to many rests and other places. Easy access to major highways.</t>
   </si>
   <si>
+    <t>jjames8819</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r229627953-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>I loved my stay here at the crossland economy studios in Mesquite, TX. The rooms were fully equipped, very clean and it was a convience for my commute to work. The front desk ladies were amazing, very accommodating and extremely helpful.Ms Diana, and Fenia who I believe was the hotel manager that worked earlier shifts and Nancy from the grave yard shift were all wonderful an very caring for my stay here at the Crossland. Any accommodation i need was handle right away with these ladies. There needs to be more employees like them, they were excellent!</t>
   </si>
   <si>
+    <t>Victor L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r228801631-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Ambra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r224446166-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Staff keeps moving me to different rooms and doesn't change bedding or clean rooms. Rude to guests and threatens to kick out guests for asking for customer service. Never received any kitchenware or utensils</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r222649446-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Stacey198726</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r221079481-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>The location is perfect it has a grocery store near by, a gas station. If you want to go out to eat or the movies they are close by. The only problem i had was the tv, it wasn't up to date. If i had a dvd player or my ps3 i couldn't play it. The room was small but it was comfortable. Shower needed to be up to date but couldn't complain about the shower pressure. You had to buy a ice tray to make ice because they don't have ice machines and there is no pool. Overall i had a good stay.</t>
   </si>
   <si>
+    <t>Rain Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r213680863-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>The first thing i noticed was the carpet that is covered with sticky filthiness.  Then i found that the tv remote did not work. Someone had pulled all the buttons of the room telephone. I went to get a drink only to discover white residue in the bottom of the cup that resembles rotten milk. The towel in the bathroom has yellow stains on it.  The worst part came at 1:30AM when somone woke me from sleep by pounding on the door demanding that i open it NOW!  I was going to call the police, but it was the hotel worker.  Some women had told him i was in her room. I should have called the cops, it was my room after all. This property should be an embarrassment to the extended stay america name. Do not stay here. If you value your health and safety then stay somewhere else.  More</t>
   </si>
   <si>
+    <t>Tonya H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r209535210-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -474,6 +522,9 @@
     <t>First of all, I made reservations in advance to check in by 2 pm only to get there and be told my room was not clean. So, my first thought was why make reservation to get  there and have to wait and additional 30 minutes. After, waiting I then get to my room that has one bed yet I was booked for a two bed room. The bathroom smells like the sewage. The worst is yet to come as I lay in that tiny bed I'm awaken by the fact that the electricity went out. I called the toll-free number only to be told someone from guest relations will contact me in 24 to 48 hours. Which is crazy since I'll be checked out already it's not only to location to blame I blame the whole Extended Stay America enterprise because they should provide great customer service regardless of the locations. This location has all different type of people drug addicts, prostitutes, pimps and all of the above it's truly scary...........I WANT A REFUND THEY SAY A BOUGHT LESSON IS A TAUGHT LESSON:-(More</t>
   </si>
   <si>
+    <t>Carla U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r208369327-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -487,6 +538,9 @@
   </si>
   <si>
     <t>I went to this hotel last night 5/31/14. We were assigned a room on the 3rd floor and we were shocked when we opened the door.  The room had trash everywhere, dirty dishes, things that the previous person left in there, the bed was not ready and the whole room was so dirty like if had not been cleaned in months.  I took pictures and showed to the receptionist and he said: "sometimes it happens". I will try to upload the pictures.</t>
+  </si>
+  <si>
+    <t>Jenifer S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r207771158-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -516,6 +570,9 @@
 The first time I stayed I booked the "accessible" room on accident,...The following was written by another customer..this was my EXACT experience!!!! To a T!"Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. Finally....and the lady gives me a room key. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid for it. There were even pans and utensils for cooking and the tub/shower combo was nice and shiny with plenty of towels. So, I let the bad check in experience go because I was happy with the room. Ok, fast forward a few days later. Check in was quick and easy, it was mid afternoon, but then I got to my room, which felt more like a shoe box. It was cramped and musty, no pans for cooking my own meal and one towel. This room was located on the 2nd floor. I think if as a hotel you advertise things like stove tops, cooking utensils and such, that you should make sure all of your rooms have these items.."The first time I stayed I booked the "accessible" room on accident, and later realized why it was actually a good thing. So after the second shoe-box room, I have purposely reserved the "accessible" room, in advance, online..only to arrive, and not a single of the additional 4 stays has it been available. Was given a full sized bed for a 5 year old and 2 adults..yea right. Was told if I wanted to upgrade, I'd have to pay the difference.. even though the guy at the front desk admitted that a "computer glitch" ON THE HOTEL'S END was to blame for my room, that I already reserved, being unavailable. NOT my fault.I mentioned this in my post-stay survey, however, nothing has been done to try and resolve the issue. I hope it's fixed because I LOVE this hotel..I just hate to take the time to line up my ducks, then have to deal with their "computer glitch"..More</t>
   </si>
   <si>
+    <t>mesquitemom9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r198456040-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. I then called the hotel to find out how I was suppose to check in, I got transferred to the answering service and the woman had me on the phone for 20mins while she tried to get someone on staff to answer the phone and let me in. Finally after I had been standing outside for 30mins a woman switched the light on and motioned for me to go around to the side. Wierd, but what the heck I needed to get to my room. She then opens the side door and tells me she will be with me in a minute and tells me to have a seat....I then wait about 10minutes for her to finish what she is doing and then she finally takes my info and gives me a room key. I would have had some mean words for the wait, but I was tired and just wanted to lay down. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid...Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. I then called the hotel to find out how I was suppose to check in, I got transferred to the answering service and the woman had me on the phone for 20mins while she tried to get someone on staff to answer the phone and let me in. Finally after I had been standing outside for 30mins a woman switched the light on and motioned for me to go around to the side. Wierd, but what the heck I needed to get to my room. She then opens the side door and tells me she will be with me in a minute and tells me to have a seat....I then wait about 10minutes for her to finish what she is doing and then she finally takes my info and gives me a room key. I would have had some mean words for the wait, but I was tired and just wanted to lay down. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid for it. There were even pans and utensils for cooking and the tub/shower combo was nice and shiny with plenty of towels. So, I let the bad check in experience go because I was happy with the room. Ok, fast forward to two days later when I needed a room again due to repairs on my home taking longer than had imagined. Check in was quick and easy, it was mid afternoon, but then I got to my room, which felt more like a shoe box. It was cramped and musty, no pans for cooking my own meal and one towel. This room was located on the 2nd floor. I called the front desk to ask for a pan and got no answer, so I walked down and requested pans to cook with. I was then left in the office and waited fifteen minutes for the man to come and give me one pan, I was too irritated to even ask for another once, since I didn't want to wait 15 more minutes. I think if as a hotel you advertise things like stove tops, cooking utensils and such, that you should make sure all of your rooms have these items. I have come to the conclusion that in order to have a good stay, I will need to request the room right next to the office and check in way before 11pm.More</t>
   </si>
   <si>
+    <t>Jessdee1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r192478624-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -561,6 +621,9 @@
     <t>Please remember you get what you pay for. If you expect wake up calls and turn down service this is not the place. The room is clean when you check in. Michelle and Mamadu are very responsive and will help when they can. However, don't leave your valuable laying around and hang on to your towels. I had to go to Target to buy my own. Victoria, the cleaning lady is terrified of cats. If you can't crate yours she can't clean your room. If Ellie is there (as he often is on the weekend) don't ask him for anything. Just wait until Monday when their "a" team is there. Remember it's clean and quiet. The laundry room is on premises it's 2.00 to wash and 2.00 to dry. They label out of order washers and dryers. The vending machines are pricy but you can walk to the grocery store if you don't have a car. All in all a please to stay. More</t>
   </si>
   <si>
+    <t>nonamebob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r187106596-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -583,6 +646,9 @@
   </si>
   <si>
     <t>My 1 sentence says it all. Was told it was a non smoking room. Smelled like somebody had smoked a carton the night before me. Honestly.  Didnt care that we wasn't told it was a handicap room but they seriously need a new cleaning crew. Cob webs and dirty carpets, curtains looked like they have never been cared for. I could go on but whats the point.  Just if you can find something else please do. Its not worth the money. I stayed at the Crossroads in Mesquite Texas room 135. I will give corporate a email cause I'm sure nobody high up will read this review. DUMP!!!More</t>
+  </si>
+  <si>
+    <t>nathalie l</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r181068133-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -608,6 +674,9 @@
 Upon our check out I was told that I owed 17$ (I had booked with hotwire so no charges should of been added) that the clerk had no idea why this charge was there. She was new and called her manager who refused to give us a bill explaining what these charges were...I wish I had something good to say about this place but that is not the case. I arrived at 10:30pm after a very long drive and had to wait at least 10 minutes before anyone showed up at the front desk and while waiting some guest told me that this was his worst stay (and another guest was waiting for a plunger to unblock her toilet...) so it was not too promising. Once in the room there were no toilet paper or pillows!! The front desk clerk was nice enough to bring us some. We also noticed that there were a lot of  'hair' on the bathroom floor from a previous guest that had either cut his mustache or something else......so the next morning I called the front desk to ask them to send someone to clean it up and to our surpris after two days the hair mess was still there!! No one ever came..We also got woken up by the cleaning lady who obviously did not check how many days we were staying...(2) needless to say she was sent on her way pretty quickly...Upon our check out I was told that I owed 17$ (I had booked with hotwire so no charges should of been added) that the clerk had no idea why this charge was there. She was new and called her manager who refused to give us a bill explaining what these charges were all about. I will talk to Hotwire about this bill that I still don't know if they will charge me or not. Oh yes, we locked ouselves out the first night and the clerk at the time just gave us another card without even asking our names!! There should at least be a security protocol to be followed in a case like that....anyhow this is out last stay in a rundown motel like that. Hopefully this will help as a review.More</t>
   </si>
   <si>
+    <t>gd540</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r177731301-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -635,6 +704,9 @@
     <t>I wish I had run into some of the nice people other reviewers have mentioned.  Unfortunately, I did not.  The rooms are well worn, not terrible, but there is plenty of room for improvement.  The problems seem to be more along the lines of management and operations.  The young man staffing the front desk seemed clueless about what he was doing and took no less than 20 minutes to check me in.  He insisted on taking care of me first when another customer only wanted an extra towel.  Towels are an issue here.  We got to our room and found a single bath towel.  No wash rags, no hand towels.  (Why would a room meant for four people be stocked with enough towels for less than one person?)  I went back to the office to ask for more towels and found the office open but vacant.  A half hour later I went back again, the office was still vacant.  Next trip was after 11pm so the office was closed.  The next day my son went to the office and was told they were out of towels.  HUH?Hard to believe, but we actually went to WalMart to buy towels.Needless to say, we won't be staying here in the future and recommend that you don't either.More</t>
   </si>
   <si>
+    <t>926DarleneS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r176155024-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -662,6 +734,9 @@
     <t>Due to a job related relocation, my husband and I stayed for 3 months+. The service staff, including the maintenance crew, were ALWAYS kind, considerate, helpful and willing to do everything they could to make our stay comfortable.Mamadu always goes over and above to help. He is an asset to the hotel, for sure.  All of the staff are great, with a special "Thank You" to Megan and Leo.I would stay there again with no reservations and recommend it to anyone who asks where they can find a good hotel.Thank you all!More</t>
   </si>
   <si>
+    <t>Stink W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r158708754-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -689,6 +764,9 @@
     <t>Cheapest extended stay hotel in Mesquite.  No frills, but the showers were hot and the beds were fine.  Comforters on the beds must have been decades old.  Neighbors were rowdy but friendly.  Garbage truck comes early in the morning to load the dumpster (loudly).More</t>
   </si>
   <si>
+    <t>Drea2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r156143334-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -743,6 +821,9 @@
     <t>The hotel is run by terrorists from Senegal. With the exception of Michele (Michele is outstanding) and Leo, the rest of the staff is rude, discourteous, and obnoxious. Going to the office to pay rent or to ask for supplies, such as soap or toilet paper, is emotionally stressful.More</t>
   </si>
   <si>
+    <t>Psssshhhhh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r150373502-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -797,6 +878,9 @@
     <t>they make your stay here comfortable and the customer service is truely the best in town. Great job guys OUTSTADIG JOB!!!!!!!!!I If you fid your self i Dallas this would e the place to stay.Their locatio is great  a aundance of places to eat and shop. They have kitchenettes if you had rather cook .More</t>
   </si>
   <si>
+    <t>LadyB261</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r148332411-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -821,6 +905,9 @@
     <t>the room that was behind us was empty and the alarm was set to go off at 1am. When I called for them to turn the alarm off, Trey stated several times that he was going to turn it off but never did. We had to turn the volume up on our tv to drown out the noise from the alarm that sounded all night long. If you want uncomfortable beds,  noisy rooms with thin walls, and poor customer service, oh, and did I mention bugs!!!!!!! If so, then come here!More</t>
   </si>
   <si>
+    <t>BigYella69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147823960-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -845,6 +932,9 @@
     <t>Our receptionist Michelle was very courteous and helpful for the three week we where there. Would stay there again when I come to town. Really like the location a lot of places to eat and shop at. Very close to the hey made it easy for me to get around in a city I was in for three weeks.More</t>
   </si>
   <si>
+    <t>mike y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147674788-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -869,6 +959,9 @@
     <t>I checked in for business with my 3year old son   the staff was very helpful  while I stayed  they took the time to stop and talk to my son the kitchenette was  great to be able to prepaid food for me and my son  everything was there  no surprises all we had to bring was our clothes  I will definitely stay with them again when I go back to DallasMike youngMore</t>
   </si>
   <si>
+    <t>Jerry A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r143007696-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -893,6 +986,9 @@
     <t>It is tired and due an upgrade. Everything is past the "reasonable" usage time. The staff and employees, seem to do the,best with what they have to, work with. A Trucking company uses for housing of new drivers in training. Several, long stay residents use this property as a permanent home. Good location near restaurants. Fair price for what you receive.More</t>
   </si>
   <si>
+    <t>promqueen94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r131353007-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1016,9 @@
     <t>I stayed at this hotel for two nights while in town for a party.  It is a typical one star property but there were a lot of people hanging outside the hotel on Friday night.  The location is great, there are a lot of restaurants nearby.  I was a bit uncomfortable with all of the people hanging around and it was kind of noisy at night.  The room was relatively clean and what you would expect from a one star property.  I travel on a budget and named my own price of $25 on Priceline.  I got what I paid for.  The guy at the front desk was nice...I called a few times trying to find the hotel.More</t>
   </si>
   <si>
+    <t>TheNighthawkBender</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r124459192-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1046,9 @@
     <t>The Mesquite Crosslands was my first experience with this brand of hotel. In comparison to other extended stay hotels it was below average. The rooms are quite small even for one person. Hotel staff and location were good perks however. A local trucking company uses this hotel very regularly and typically has over 80% of it occupied at any given time. Therefore I would suggest making a reservation well in advance if you plan on staying here. I actually had to switch rooms after my first week due to this. Talking with some of the truck drivers was an interesting perk as well.Pros: Only pay one-time for WI FI access (most extended stays charge for Internet weekly), good location with many restaurants and mall nearbyCons: Small rooms, hotel has limited kitchenware, small kitchen facilityI would rate this a 5 out of 10 on the extended stay hotel scale.More</t>
   </si>
   <si>
+    <t>whitlighting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r94296294-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1067,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>willeg1001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r55577084-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1091,9 @@
     <t>I flew to Misquite for job training with an unnamed trucking company ( on my own dime ), the room was provided for me. My 1st room had never been cleaned since the last person and had a huge hole in the bathroom ceiling and wreeked of crack smoke! The 2nd wasnt much better. Very unsafe location. So bad, I immediatly called a cab, went back to the airport paid for a ticket back home and waited all night for the terminals to reopen. As bad as staying in airports for 2 whole days changing flights 8 times in all was, it was better than staying ONE night in those rooms! I beg of you, I emplore you DO NOT WASTE YOUR $$$. By the way, a cab to the airport costed $72!!More</t>
   </si>
   <si>
+    <t>bnfree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r51002891-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1110,9 @@
   </si>
   <si>
     <t>December 2009</t>
+  </si>
+  <si>
+    <t>Letsjustgetaway</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r34265680-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -1531,43 +1642,47 @@
       <c r="A2" t="n">
         <v>37423</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127605</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1581,7 +1696,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1594,37 +1709,37 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1638,50 +1753,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37423</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>15120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1699,50 +1818,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37423</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1756,41 +1879,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37423</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>58952</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1809,50 +1936,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37423</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127607</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1866,50 +1997,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37423</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>34665</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1929,50 +2064,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37423</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127608</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1986,50 +2125,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37423</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127609</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2043,50 +2186,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37423</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2100,41 +2247,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37423</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127610</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2163,50 +2314,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37423</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>66547</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2226,41 +2381,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37423</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127611</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2289,50 +2448,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37423</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2352,41 +2515,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37423</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127612</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
@@ -2415,50 +2582,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37423</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127613</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2472,41 +2643,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37423</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127614</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2535,41 +2710,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37423</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127615</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2598,50 +2777,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37423</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>26066</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2665,50 +2848,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37423</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127616</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2730,47 +2917,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="X21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37423</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127617</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -2799,41 +2990,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37423</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127618</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2860,56 +3055,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="X23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37423</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127619</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2933,50 +3132,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37423</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127620</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2998,56 +3201,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37423</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127621</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3069,56 +3276,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37423</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127622</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3140,56 +3351,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37423</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127623</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3211,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="X28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
@@ -3230,37 +3445,37 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3282,56 +3497,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37423</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127624</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3353,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
@@ -3372,37 +3591,37 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3424,56 +3643,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="X31" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37423</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127625</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3495,47 +3718,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37423</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127626</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3562,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37423</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3633,56 +3864,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37423</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3704,56 +3939,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37423</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127628</v>
+      </c>
+      <c r="C36" t="s">
+        <v>320</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3775,56 +4014,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37423</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127629</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3846,56 +4089,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37423</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127630</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3919,50 +4166,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37423</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3986,50 +4237,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37423</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127632</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4053,50 +4308,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37423</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>362</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4120,7 +4379,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_151.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Ricky R</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r547918645-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r547918645-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>56280</t>
@@ -183,7 +180,7 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r540926729-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r540926729-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>540926729</t>
@@ -201,10 +198,7 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>Dale S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r502243821-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r502243821-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>502243821</t>
@@ -228,10 +222,7 @@
     <t>I moved to Dallas, and stayed in this hotel for 3 months while I looked for an apartment. I had a few problems while I was there, for example, a couple having a fight in the room next to me (not the hotels fault).  There are laundry facilities that are reasonably priced, and the Wifi does work rather well.  At the time, the front desk didn't carry quarters, so you would need to bring some.  At first I had a room on the first floor, so people were walking by the room talking loudly all night.  After that, I moved to the third floor and it was much quieter.  New room only had one pillow.  I asked for another one, and they said they were out, for the next two months I asked, and they were still out.More</t>
   </si>
   <si>
-    <t>Thaddeus3</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r397098479-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r397098479-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>397098479</t>
@@ -252,10 +243,7 @@
     <t>The room I was in looked ok. Paint looked fresh. Carpet looked fairly new but a few things made me think otherwise of this place. I saw roaches in the bathroom. Thats a complete no no. I ask them to spray but I dont think they did. I saw some after I ask them. Another thing is they have a towel issue. Its ashame that hotel runs out of clean towels. To me thats unheard of and unprofessional. Lets you know its poorly ran or someone is just cutting corners. A few of my co workers were bitten by bed bugs and had to be relocated to another hotel. Awful!! More</t>
   </si>
   <si>
-    <t>Nicole A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r379801555-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r379801555-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>379801555</t>
@@ -270,10 +258,7 @@
     <t>Great! 5 stars. All of the staff made my stay very comfortable, the rooms were clean and the area was quiet and kid friendly. I got my deposit back in a timely manner with no problems. I enjoyed my stay here and I will be coming back ! Thank you!!!!!!</t>
   </si>
   <si>
-    <t>Albertbk</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r377971752-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r377971752-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>377971752</t>
@@ -294,10 +279,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Regina W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r361005702-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r361005702-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>361005702</t>
@@ -315,10 +297,7 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>karis307</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r360077048-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r360077048-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>360077048</t>
@@ -336,10 +315,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Heather l</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r359016520-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r359016520-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>359016520</t>
@@ -360,10 +336,7 @@
     <t>can you believe it! we had booked a room at crossland economy suites online on hotwire and they ensured us we could check in at or after6am which hotel policyis 3pm checkins but the manager worked with us and got us in a room at about 11:30 also we were not informed by hotwire of need for 100$deposit and didnt not have it . the manager was kind enough to work with us here also we were able to stay !the whole ordeal both the front desk clerk and manager were helpful friendly and had great attitudes and made sure they satisfied the customers needs listened to our complaints with opened minds and id say definetley gained us as a regular customer! so for those of you who think customer service is dead and wish the old motto"the customer is always right" was practiced in todays business you should come see it in action at this motel!the rooms have small fridges and stovetops very clean and comfortable. we enjoyed the staff and our stay and may actaully stay longer term here! thank you crosslands staff!continue the great work!More</t>
   </si>
   <si>
-    <t>Tonya M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r358473584-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r358473584-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>358473584</t>
@@ -378,10 +351,113 @@
     <t>Excellent place to stay. Tonya Lee Martinez Thank you. Clean rooms. Staff very helpful. No problems. Great weekly rates. Has kitchenette good got water. No problems with security issues. Very close to many rests and other places. Easy access to major highways.</t>
   </si>
   <si>
-    <t>jjames8819</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r229627953-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r331914787-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>331914787</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>The saying "you get what you pay for" really rings true here...</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Before I say any more, i'll state that this review is not negative nor meant to be negative towards this motel. I'm just saying that based on my experience here, the price is low, but so were my expectations. Just a simple fact of life that when the price point is at the lower end for anything, you can expect to get "the works".
+PROS:
+I'll start with the positives. The best part is the staff. Courteous, friendly, helpful, polite, and all around very welcoming. I couldn't have ran into a better staff. There were 2 main shifts- the office opens at 7AM and closes at 11PM. When I walked into the office, they would smile and ask how they can help me. If they were able to help, they would. If they couldn't, they politely stated so. They don't have much to work with, as the motel has very little availale as far as what they are able to offer besides the room itself. But the staff was very nice. Mamadou, one of the managers, was very professional and well dressed.  I was told that he would not be the manager there for too long as a result of the ownership changing hands.  Another pro- the price- cheap. probably the cheapest in the Dallas area. Sure, it's a few minutes out of the city, and if you stay here you'll need a car....You get what you pay for. Before I say any more, i'll state that this review is not negative nor meant to be negative towards this motel. I'm just saying that based on my experience here, the price is low, but so were my expectations. Just a simple fact of life that when the price point is at the lower end for anything, you can expect to get "the works".PROS:I'll start with the positives. The best part is the staff. Courteous, friendly, helpful, polite, and all around very welcoming. I couldn't have ran into a better staff. There were 2 main shifts- the office opens at 7AM and closes at 11PM. When I walked into the office, they would smile and ask how they can help me. If they were able to help, they would. If they couldn't, they politely stated so. They don't have much to work with, as the motel has very little availale as far as what they are able to offer besides the room itself. But the staff was very nice. Mamadou, one of the managers, was very professional and well dressed.  I was told that he would not be the manager there for too long as a result of the ownership changing hands.  Another pro- the price- cheap. probably the cheapest in the Dallas area. Sure, it's a few minutes out of the city, and if you stay here you'll need a car. But it's literally right next to the highway (I-30), so access to wherever you want to go is simple and easy. Also, lots of restaurants and shopping areas are within 5 minutes or less of driving. Also, free wifi available, a big plus in my book. CONS:Let me once again state that you get what you pay for so before I go on just bear in mind that this is not meant to deter people from going here or giving this place a bad review. The price is cheap so don't go to this place expecting room service, upscale guests, or even fresh towels and shampoo.When I walked into my room I noticed the carpets were real filthy with stains and the bathroom toilet seat as dirty. The A/C worked but only when it wanted to. The kitchen area was dirty. Actually come to think of it, the entire room was dirty and looked like it hadn't been cleaned. It had, but they did a horrible job. No shampoo, no iron, no clothes hangars, no shampoo, no nothing except for a towel and 2 wash cloths. I was there 2 nights so I asked the cleaning lady who was nearby for a fresh towel since I didn't receive room service (I guess you don't get room service if you're only there for 2 nights). She said no and that I would need to ask the office. Really? You can't give me a towel? At that point I realized there was a towel shortage and didn't even bother going to the office. When I booked my trip online it said that there would be breakfast included but there wasn't. Also the travel website I booked through says it's open 24 hours but that's not true- the office closes at 11PM, which if fine, I'm just sayin that the travel website said 24 hours.  I couldn't sleep the first night because it was loud- there were these guys that wouldn't stop making noise all night. They were pretty shady. The second night I did sleep but there was still a lot of noise coming from other rooms. There were a lot of trashy, low class people here but with a cheapo hotel, that's what you're going to get.Overall, I would say, FOR THE MONEY it's about what I would expect. If you're a single guy or gal passing through town, or a young couple short on cash and you need a place to stay and don't mind it being a little shady, then this is the place for you. If you're a family with kids on vacation and you decide to stay here, they you're in for quite a surprise. Let me save you the trouble- if you have kids, spend the extra cash on a more upscale place. I wouldn't say this place is unsafe- it's fairly safe. But I wouldn't recommend leaving any valuables in the room either. I'm not saying anyone would break into you room, I'm just saying, don't leave any valuables in your room. In conclusion, for the money, it's what I expected. If you want to pinch dollars and need a bed to sleep in for a night or two (which was the case for me), this is the place for you. If you want luxury and room service, look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Before I say any more, i'll state that this review is not negative nor meant to be negative towards this motel. I'm just saying that based on my experience here, the price is low, but so were my expectations. Just a simple fact of life that when the price point is at the lower end for anything, you can expect to get "the works".
+PROS:
+I'll start with the positives. The best part is the staff. Courteous, friendly, helpful, polite, and all around very welcoming. I couldn't have ran into a better staff. There were 2 main shifts- the office opens at 7AM and closes at 11PM. When I walked into the office, they would smile and ask how they can help me. If they were able to help, they would. If they couldn't, they politely stated so. They don't have much to work with, as the motel has very little availale as far as what they are able to offer besides the room itself. But the staff was very nice. Mamadou, one of the managers, was very professional and well dressed.  I was told that he would not be the manager there for too long as a result of the ownership changing hands.  Another pro- the price- cheap. probably the cheapest in the Dallas area. Sure, it's a few minutes out of the city, and if you stay here you'll need a car....You get what you pay for. Before I say any more, i'll state that this review is not negative nor meant to be negative towards this motel. I'm just saying that based on my experience here, the price is low, but so were my expectations. Just a simple fact of life that when the price point is at the lower end for anything, you can expect to get "the works".PROS:I'll start with the positives. The best part is the staff. Courteous, friendly, helpful, polite, and all around very welcoming. I couldn't have ran into a better staff. There were 2 main shifts- the office opens at 7AM and closes at 11PM. When I walked into the office, they would smile and ask how they can help me. If they were able to help, they would. If they couldn't, they politely stated so. They don't have much to work with, as the motel has very little availale as far as what they are able to offer besides the room itself. But the staff was very nice. Mamadou, one of the managers, was very professional and well dressed.  I was told that he would not be the manager there for too long as a result of the ownership changing hands.  Another pro- the price- cheap. probably the cheapest in the Dallas area. Sure, it's a few minutes out of the city, and if you stay here you'll need a car. But it's literally right next to the highway (I-30), so access to wherever you want to go is simple and easy. Also, lots of restaurants and shopping areas are within 5 minutes or less of driving. Also, free wifi available, a big plus in my book. CONS:Let me once again state that you get what you pay for so before I go on just bear in mind that this is not meant to deter people from going here or giving this place a bad review. The price is cheap so don't go to this place expecting room service, upscale guests, or even fresh towels and shampoo.When I walked into my room I noticed the carpets were real filthy with stains and the bathroom toilet seat as dirty. The A/C worked but only when it wanted to. The kitchen area was dirty. Actually come to think of it, the entire room was dirty and looked like it hadn't been cleaned. It had, but they did a horrible job. No shampoo, no iron, no clothes hangars, no shampoo, no nothing except for a towel and 2 wash cloths. I was there 2 nights so I asked the cleaning lady who was nearby for a fresh towel since I didn't receive room service (I guess you don't get room service if you're only there for 2 nights). She said no and that I would need to ask the office. Really? You can't give me a towel? At that point I realized there was a towel shortage and didn't even bother going to the office. When I booked my trip online it said that there would be breakfast included but there wasn't. Also the travel website I booked through says it's open 24 hours but that's not true- the office closes at 11PM, which if fine, I'm just sayin that the travel website said 24 hours.  I couldn't sleep the first night because it was loud- there were these guys that wouldn't stop making noise all night. They were pretty shady. The second night I did sleep but there was still a lot of noise coming from other rooms. There were a lot of trashy, low class people here but with a cheapo hotel, that's what you're going to get.Overall, I would say, FOR THE MONEY it's about what I would expect. If you're a single guy or gal passing through town, or a young couple short on cash and you need a place to stay and don't mind it being a little shady, then this is the place for you. If you're a family with kids on vacation and you decide to stay here, they you're in for quite a surprise. Let me save you the trouble- if you have kids, spend the extra cash on a more upscale place. I wouldn't say this place is unsafe- it's fairly safe. But I wouldn't recommend leaving any valuables in the room either. I'm not saying anyone would break into you room, I'm just saying, don't leave any valuables in your room. In conclusion, for the money, it's what I expected. If you want to pinch dollars and need a bed to sleep in for a night or two (which was the case for me), this is the place for you. If you want luxury and room service, look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r317395406-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>317395406</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>OK but about to change hands</t>
+  </si>
+  <si>
+    <t>It's basic, but so is the price.  No substantial complaints re staff, other than higher-than-average turnover.  Room was adequately maintained, weekly housekeeping was about 90% reliable; no major objections (unlike other respondents).  BUT... the property has been sold and is reportedly about to become a LaQuinta within the next few weeks; complete management turnover etc.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r276275992-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>276275992</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>The hotel itself was not too bad however, the room I stayed in had bed bugs. Woke up with several bites all over my body in clusters so I know it was bed bugs. Disgusting. I know it is an extended stay, and it's been a while since I stayed there so hopefully it is not as bad anymore but I still would not go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself was not too bad however, the room I stayed in had bed bugs. Woke up with several bites all over my body in clusters so I know it was bed bugs. Disgusting. I know it is an extended stay, and it's been a while since I stayed there so hopefully it is not as bad anymore but I still would not go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r262542862-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>262542862</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE HOTEL EVER, I DON'T RECOMMEND AT ALL!</t>
+  </si>
+  <si>
+    <t>I was only there for 3 days and on the second day they robbed me! I had gone out with my two children and when I came back the door was wide open. I could not believe it. My clothes was all over the floor,my daughter's suitcase with clothes was gone, laptop gone and camara!! So many things were gone.I don't RECOMMEND this hotel at all.Please  it's not safe!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r258574794-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>258574794</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>EVERY WORD THAT EQUALS HORRIBLE</t>
+  </si>
+  <si>
+    <t>Me and my 17 y.o. daughter had to stay here after a job fell thru for me and we were in transition. This place was horrible!!! There are truckers who attend school and stay here and often watched me and my daughter move abOut. One guy came to my room late one night with unpleasant intentions. We had so much noise coming from the I ended up calling the police because someone in the office told me too. Getting linens was a tragedy. I got one piece a bout every 4 hours after having them cleaned. I later purchased covers for both beds. I also purchased plug in because of the dank smell of the room.  I witnessed a drug transaction on my 4th night stay. I cleaned my own room..vacuuming and all. The front office staff was nice but highly incompetent. I wrote in a complaint and called in one to head office after being lied to by a "lead" posing as a manager. This particular location does not have a general manager. Just fill ins. It was the worst experience ever.  This place makes motel 6 look like a 4 star! If u have a choice..Please don't come here if u have anywhere else to go. If u have any class or used to cleanliness and very big on customer service and u don't want to clean up own room and have cleans sheets if u stay a...Me and my 17 y.o. daughter had to stay here after a job fell thru for me and we were in transition. This place was horrible!!! There are truckers who attend school and stay here and often watched me and my daughter move abOut. One guy came to my room late one night with unpleasant intentions. We had so much noise coming from the I ended up calling the police because someone in the office told me too. Getting linens was a tragedy. I got one piece a bout every 4 hours after having them cleaned. I later purchased covers for both beds. I also purchased plug in because of the dank smell of the room.  I witnessed a drug transaction on my 4th night stay. I cleaned my own room..vacuuming and all. The front office staff was nice but highly incompetent. I wrote in a complaint and called in one to head office after being lied to by a "lead" posing as a manager. This particular location does not have a general manager. Just fill ins. It was the worst experience ever.  This place makes motel 6 look like a 4 star! If u have a choice..Please don't come here if u have anywhere else to go. If u have any class or used to cleanliness and very big on customer service and u don't want to clean up own room and have cleans sheets if u stay a week...then this is not the place for u. MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my 17 y.o. daughter had to stay here after a job fell thru for me and we were in transition. This place was horrible!!! There are truckers who attend school and stay here and often watched me and my daughter move abOut. One guy came to my room late one night with unpleasant intentions. We had so much noise coming from the I ended up calling the police because someone in the office told me too. Getting linens was a tragedy. I got one piece a bout every 4 hours after having them cleaned. I later purchased covers for both beds. I also purchased plug in because of the dank smell of the room.  I witnessed a drug transaction on my 4th night stay. I cleaned my own room..vacuuming and all. The front office staff was nice but highly incompetent. I wrote in a complaint and called in one to head office after being lied to by a "lead" posing as a manager. This particular location does not have a general manager. Just fill ins. It was the worst experience ever.  This place makes motel 6 look like a 4 star! If u have a choice..Please don't come here if u have anywhere else to go. If u have any class or used to cleanliness and very big on customer service and u don't want to clean up own room and have cleans sheets if u stay a...Me and my 17 y.o. daughter had to stay here after a job fell thru for me and we were in transition. This place was horrible!!! There are truckers who attend school and stay here and often watched me and my daughter move abOut. One guy came to my room late one night with unpleasant intentions. We had so much noise coming from the I ended up calling the police because someone in the office told me too. Getting linens was a tragedy. I got one piece a bout every 4 hours after having them cleaned. I later purchased covers for both beds. I also purchased plug in because of the dank smell of the room.  I witnessed a drug transaction on my 4th night stay. I cleaned my own room..vacuuming and all. The front office staff was nice but highly incompetent. I wrote in a complaint and called in one to head office after being lied to by a "lead" posing as a manager. This particular location does not have a general manager. Just fill ins. It was the worst experience ever.  This place makes motel 6 look like a 4 star! If u have a choice..Please don't come here if u have anywhere else to go. If u have any class or used to cleanliness and very big on customer service and u don't want to clean up own room and have cleans sheets if u stay a week...then this is not the place for u. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r229627953-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>229627953</t>
@@ -396,10 +472,7 @@
     <t>I loved my stay here at the crossland economy studios in Mesquite, TX. The rooms were fully equipped, very clean and it was a convience for my commute to work. The front desk ladies were amazing, very accommodating and extremely helpful.Ms Diana, and Fenia who I believe was the hotel manager that worked earlier shifts and Nancy from the grave yard shift were all wonderful an very caring for my stay here at the Crossland. Any accommodation i need was handle right away with these ladies. There needs to be more employees like them, they were excellent!</t>
   </si>
   <si>
-    <t>Victor L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r228801631-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r228801631-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>228801631</t>
@@ -417,10 +490,7 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Ambra S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r224446166-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r224446166-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>224446166</t>
@@ -435,10 +505,7 @@
     <t>Staff keeps moving me to different rooms and doesn't change bedding or clean rooms. Rude to guests and threatens to kick out guests for asking for customer service. Never received any kitchenware or utensils</t>
   </si>
   <si>
-    <t>Michelle P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r222649446-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r222649446-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>222649446</t>
@@ -456,10 +523,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Stacey198726</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r221079481-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r221079481-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>221079481</t>
@@ -474,10 +538,7 @@
     <t>The location is perfect it has a grocery store near by, a gas station. If you want to go out to eat or the movies they are close by. The only problem i had was the tv, it wasn't up to date. If i had a dvd player or my ps3 i couldn't play it. The room was small but it was comfortable. Shower needed to be up to date but couldn't complain about the shower pressure. You had to buy a ice tray to make ice because they don't have ice machines and there is no pool. Overall i had a good stay.</t>
   </si>
   <si>
-    <t>Rain Y</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r213680863-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r213680863-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>213680863</t>
@@ -492,19 +553,13 @@
     <t>The first thing i noticed was the carpet that is covered with sticky filthiness.  Then i found that the tv remote did not work. Someone had pulled all the buttons of the room telephone. I went to get a drink only to discover white residue in the bottom of the cup that resembles rotten milk. The towel in the bathroom has yellow stains on it.  The worst part came at 1:30AM when somone woke me from sleep by pounding on the door demanding that i open it NOW!  I was going to call the police, but it was the hotel worker.  Some women had told him i was in her room. I should have called the cops, it was my room after all. This property should be an embarrassment to the extended stay america name. Do not stay here. If you value your health and safety then stay somewhere else.  MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>The first thing i noticed was the carpet that is covered with sticky filthiness.  Then i found that the tv remote did not work. Someone had pulled all the buttons of the room telephone. I went to get a drink only to discover white residue in the bottom of the cup that resembles rotten milk. The towel in the bathroom has yellow stains on it.  The worst part came at 1:30AM when somone woke me from sleep by pounding on the door demanding that i open it NOW!  I was going to call the police, but it was the hotel worker.  Some women had told him i was in her room. I should have called the cops, it was my room after all. This property should be an embarrassment to the extended stay america name. Do not stay here. If you value your health and safety then stay somewhere else.  More</t>
   </si>
   <si>
-    <t>Tonya H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r209535210-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r209535210-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>209535210</t>
@@ -522,10 +577,7 @@
     <t>First of all, I made reservations in advance to check in by 2 pm only to get there and be told my room was not clean. So, my first thought was why make reservation to get  there and have to wait and additional 30 minutes. After, waiting I then get to my room that has one bed yet I was booked for a two bed room. The bathroom smells like the sewage. The worst is yet to come as I lay in that tiny bed I'm awaken by the fact that the electricity went out. I called the toll-free number only to be told someone from guest relations will contact me in 24 to 48 hours. Which is crazy since I'll be checked out already it's not only to location to blame I blame the whole Extended Stay America enterprise because they should provide great customer service regardless of the locations. This location has all different type of people drug addicts, prostitutes, pimps and all of the above it's truly scary...........I WANT A REFUND THEY SAY A BOUGHT LESSON IS A TAUGHT LESSON:-(More</t>
   </si>
   <si>
-    <t>Carla U</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r208369327-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r208369327-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>208369327</t>
@@ -540,10 +592,7 @@
     <t>I went to this hotel last night 5/31/14. We were assigned a room on the 3rd floor and we were shocked when we opened the door.  The room had trash everywhere, dirty dishes, things that the previous person left in there, the bed was not ready and the whole room was so dirty like if had not been cleaned in months.  I took pictures and showed to the receptionist and he said: "sometimes it happens". I will try to upload the pictures.</t>
   </si>
   <si>
-    <t>Jenifer S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r207771158-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r207771158-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>207771158</t>
@@ -570,10 +619,7 @@
 The first time I stayed I booked the "accessible" room on accident,...The following was written by another customer..this was my EXACT experience!!!! To a T!"Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. Finally....and the lady gives me a room key. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid for it. There were even pans and utensils for cooking and the tub/shower combo was nice and shiny with plenty of towels. So, I let the bad check in experience go because I was happy with the room. Ok, fast forward a few days later. Check in was quick and easy, it was mid afternoon, but then I got to my room, which felt more like a shoe box. It was cramped and musty, no pans for cooking my own meal and one towel. This room was located on the 2nd floor. I think if as a hotel you advertise things like stove tops, cooking utensils and such, that you should make sure all of your rooms have these items.."The first time I stayed I booked the "accessible" room on accident, and later realized why it was actually a good thing. So after the second shoe-box room, I have purposely reserved the "accessible" room, in advance, online..only to arrive, and not a single of the additional 4 stays has it been available. Was given a full sized bed for a 5 year old and 2 adults..yea right. Was told if I wanted to upgrade, I'd have to pay the difference.. even though the guy at the front desk admitted that a "computer glitch" ON THE HOTEL'S END was to blame for my room, that I already reserved, being unavailable. NOT my fault.I mentioned this in my post-stay survey, however, nothing has been done to try and resolve the issue. I hope it's fixed because I LOVE this hotel..I just hate to take the time to line up my ducks, then have to deal with their "computer glitch"..More</t>
   </si>
   <si>
-    <t>mesquitemom9</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r198456040-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r198456040-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>198456040</t>
@@ -591,7 +637,7 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded April 16, 2014</t>
+    <t>Manager_11525, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded April 16, 2014</t>
   </si>
   <si>
     <t>Responded April 16, 2014</t>
@@ -600,10 +646,7 @@
     <t>Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. I then called the hotel to find out how I was suppose to check in, I got transferred to the answering service and the woman had me on the phone for 20mins while she tried to get someone on staff to answer the phone and let me in. Finally after I had been standing outside for 30mins a woman switched the light on and motioned for me to go around to the side. Wierd, but what the heck I needed to get to my room. She then opens the side door and tells me she will be with me in a minute and tells me to have a seat....I then wait about 10minutes for her to finish what she is doing and then she finally takes my info and gives me a room key. I would have had some mean words for the wait, but I was tired and just wanted to lay down. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid...Ok, I stayed here twice in two weeks. The first visit didn't start out very well, as I had booked online and was not told that the office for check in closes at 11pm. So, I arrived at 11:30pm to find the office dark and locked. I then called the hotel to find out how I was suppose to check in, I got transferred to the answering service and the woman had me on the phone for 20mins while she tried to get someone on staff to answer the phone and let me in. Finally after I had been standing outside for 30mins a woman switched the light on and motioned for me to go around to the side. Wierd, but what the heck I needed to get to my room. She then opens the side door and tells me she will be with me in a minute and tells me to have a seat....I then wait about 10minutes for her to finish what she is doing and then she finally takes my info and gives me a room key. I would have had some mean words for the wait, but I was tired and just wanted to lay down. Now, the room made up for it. I had a queen suite which is located on the bottom floor and right next to the office, everything was immaculate and I was actually impressed by the room for what I paid for it. There were even pans and utensils for cooking and the tub/shower combo was nice and shiny with plenty of towels. So, I let the bad check in experience go because I was happy with the room. Ok, fast forward to two days later when I needed a room again due to repairs on my home taking longer than had imagined. Check in was quick and easy, it was mid afternoon, but then I got to my room, which felt more like a shoe box. It was cramped and musty, no pans for cooking my own meal and one towel. This room was located on the 2nd floor. I called the front desk to ask for a pan and got no answer, so I walked down and requested pans to cook with. I was then left in the office and waited fifteen minutes for the man to come and give me one pan, I was too irritated to even ask for another once, since I didn't want to wait 15 more minutes. I think if as a hotel you advertise things like stove tops, cooking utensils and such, that you should make sure all of your rooms have these items. I have come to the conclusion that in order to have a good stay, I will need to request the room right next to the office and check in way before 11pm.More</t>
   </si>
   <si>
-    <t>Jessdee1977</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r192478624-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r192478624-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>192478624</t>
@@ -621,10 +664,7 @@
     <t>Please remember you get what you pay for. If you expect wake up calls and turn down service this is not the place. The room is clean when you check in. Michelle and Mamadu are very responsive and will help when they can. However, don't leave your valuable laying around and hang on to your towels. I had to go to Target to buy my own. Victoria, the cleaning lady is terrified of cats. If you can't crate yours she can't clean your room. If Ellie is there (as he often is on the weekend) don't ask him for anything. Just wait until Monday when their "a" team is there. Remember it's clean and quiet. The laundry room is on premises it's 2.00 to wash and 2.00 to dry. They label out of order washers and dryers. The vending machines are pricy but you can walk to the grocery store if you don't have a car. All in all a please to stay. More</t>
   </si>
   <si>
-    <t>nonamebob</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r187106596-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r187106596-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>187106596</t>
@@ -639,7 +679,7 @@
     <t>My 1 sentence says it all. Was told it was a non smoking room. Smelled like somebody had smoked a carton the night before me. Honestly.  Didnt care that we wasn't told it was a handicap room but they seriously need a new cleaning crew. Cob webs and dirty carpets, curtains looked like they have never been cared for. I could go on but whats the point.  Just if you can find something else please do. Its not worth the money. I stayed at the Crossroads in Mesquite Texas room 135. I will give corporate a email cause I'm sure nobody high up will read this review. DUMP!!!MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded December 31, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded December 31, 2013</t>
   </si>
   <si>
     <t>Responded December 31, 2013</t>
@@ -648,10 +688,7 @@
     <t>My 1 sentence says it all. Was told it was a non smoking room. Smelled like somebody had smoked a carton the night before me. Honestly.  Didnt care that we wasn't told it was a handicap room but they seriously need a new cleaning crew. Cob webs and dirty carpets, curtains looked like they have never been cared for. I could go on but whats the point.  Just if you can find something else please do. Its not worth the money. I stayed at the Crossroads in Mesquite Texas room 135. I will give corporate a email cause I'm sure nobody high up will read this review. DUMP!!!More</t>
   </si>
   <si>
-    <t>nathalie l</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r181068133-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r181068133-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>181068133</t>
@@ -674,10 +711,7 @@
 Upon our check out I was told that I owed 17$ (I had booked with hotwire so no charges should of been added) that the clerk had no idea why this charge was there. She was new and called her manager who refused to give us a bill explaining what these charges were...I wish I had something good to say about this place but that is not the case. I arrived at 10:30pm after a very long drive and had to wait at least 10 minutes before anyone showed up at the front desk and while waiting some guest told me that this was his worst stay (and another guest was waiting for a plunger to unblock her toilet...) so it was not too promising. Once in the room there were no toilet paper or pillows!! The front desk clerk was nice enough to bring us some. We also noticed that there were a lot of  'hair' on the bathroom floor from a previous guest that had either cut his mustache or something else......so the next morning I called the front desk to ask them to send someone to clean it up and to our surpris after two days the hair mess was still there!! No one ever came..We also got woken up by the cleaning lady who obviously did not check how many days we were staying...(2) needless to say she was sent on her way pretty quickly...Upon our check out I was told that I owed 17$ (I had booked with hotwire so no charges should of been added) that the clerk had no idea why this charge was there. She was new and called her manager who refused to give us a bill explaining what these charges were all about. I will talk to Hotwire about this bill that I still don't know if they will charge me or not. Oh yes, we locked ouselves out the first night and the clerk at the time just gave us another card without even asking our names!! There should at least be a security protocol to be followed in a case like that....anyhow this is out last stay in a rundown motel like that. Hopefully this will help as a review.More</t>
   </si>
   <si>
-    <t>gd540</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r177731301-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r177731301-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>177731301</t>
@@ -695,7 +729,7 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded September 30, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded September 30, 2013</t>
   </si>
   <si>
     <t>Responded September 30, 2013</t>
@@ -704,10 +738,7 @@
     <t>I wish I had run into some of the nice people other reviewers have mentioned.  Unfortunately, I did not.  The rooms are well worn, not terrible, but there is plenty of room for improvement.  The problems seem to be more along the lines of management and operations.  The young man staffing the front desk seemed clueless about what he was doing and took no less than 20 minutes to check me in.  He insisted on taking care of me first when another customer only wanted an extra towel.  Towels are an issue here.  We got to our room and found a single bath towel.  No wash rags, no hand towels.  (Why would a room meant for four people be stocked with enough towels for less than one person?)  I went back to the office to ask for more towels and found the office open but vacant.  A half hour later I went back again, the office was still vacant.  Next trip was after 11pm so the office was closed.  The next day my son went to the office and was told they were out of towels.  HUH?Hard to believe, but we actually went to WalMart to buy towels.Needless to say, we won't be staying here in the future and recommend that you don't either.More</t>
   </si>
   <si>
-    <t>926DarleneS</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r176155024-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r176155024-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>176155024</t>
@@ -725,7 +756,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded September 12, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded September 12, 2013</t>
   </si>
   <si>
     <t>Responded September 12, 2013</t>
@@ -734,10 +765,211 @@
     <t>Due to a job related relocation, my husband and I stayed for 3 months+. The service staff, including the maintenance crew, were ALWAYS kind, considerate, helpful and willing to do everything they could to make our stay comfortable.Mamadu always goes over and above to help. He is an asset to the hotel, for sure.  All of the staff are great, with a special "Thank You" to Megan and Leo.I would stay there again with no reservations and recommend it to anyone who asks where they can find a good hotel.Thank you all!More</t>
   </si>
   <si>
-    <t>Stink W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r158708754-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r167950098-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>167950098</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Fenia</t>
+  </si>
+  <si>
+    <t>To whom it may concern:  I am writing this review on Fenia.  She was so very helpful to me this morning.  I wanted some coffee, before I came to work, and they were waiting on their truck to come in to supply me with the coffee.  She called me and let me know she found some.  She was great in helping me with my overall stay.  I now know, that this is the place where I am going to be staying for a while.  Thanks Fenia.  This Misty Boren in room 103MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>To whom it may concern:  I am writing this review on Fenia.  She was so very helpful to me this morning.  I wanted some coffee, before I came to work, and they were waiting on their truck to come in to supply me with the coffee.  She called me and let me know she found some.  She was great in helping me with my overall stay.  I now know, that this is the place where I am going to be staying for a while.  Thanks Fenia.  This Misty Boren in room 103More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r167727725-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>167727725</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay and very Courteous.</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights in June 2013. My room was clean, the staff was courteous, and I enjoyed my stay.  It was not far from Downtown Dallas. I would definitely stay here again.Great staff. I actually left my laptop here and didn't realize it for over 3 weeks. When I called to see if anyone had found it (3 weeks later), they still had it for me. I so impressed.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r166794344-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>166794344</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>"AWFUL,TERRIBLE, HORRIBLE" JUST DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>JUST STAY AWAY FROM THIS PLACE!! We checked in and the first room was dirty and they moved us to another room. We waited until they got another room clean so they said. When we walked in that room, someone had been in that room and had sex and it was not clean.The place didn't have cold water, we had no room service at all the days we stayed. We had to go to the office to get clean everything. This was just a TERRIBLE PLACE TO STAY.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r166616319-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>166616319</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>The hotel is in an good location for easy access to downtown Dallas, TX within 15 to 20 minutes fin rush hour traffic. The room was clean and in good condition, but quite small. There was a microwave, very small refrigerator, and two burner stove with no oven. The WIFI, TV, and AC worked well. The hotel was in a good location close to supermarkets, shopping centers, eating, and even a park with hiking\bike trails. I felt safe and the other occupants were not loud. My only complaint is that I requested a non-smoking room and the room was heavy with smoke. I tried spraying it down several times with air freshner which did not help very much.  I realize that occupants are probably not following the non-smoking rules, but management should attempt to sterilize the rooms that are designed as nonsmoking or ensure that folks are really given a non-smoking room when they reserve one.  The smoke issue is the only thing that prevented me from giving this hotel a very high rating as it was a good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in an good location for easy access to downtown Dallas, TX within 15 to 20 minutes fin rush hour traffic. The room was clean and in good condition, but quite small. There was a microwave, very small refrigerator, and two burner stove with no oven. The WIFI, TV, and AC worked well. The hotel was in a good location close to supermarkets, shopping centers, eating, and even a park with hiking\bike trails. I felt safe and the other occupants were not loud. My only complaint is that I requested a non-smoking room and the room was heavy with smoke. I tried spraying it down several times with air freshner which did not help very much.  I realize that occupants are probably not following the non-smoking rules, but management should attempt to sterilize the rooms that are designed as nonsmoking or ensure that folks are really given a non-smoking room when they reserve one.  The smoke issue is the only thing that prevented me from giving this hotel a very high rating as it was a good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r165626392-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>165626392</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>my stay in june 2013</t>
+  </si>
+  <si>
+    <t>i was a guest at crosslands mesquite in june 2013 it has changed since last time i stayed there and change is for better momadu  fenia michelle and jody are what the hotel needed i will recommend thishotelto friends and look forward to my next stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>i was a guest at crosslands mesquite in june 2013 it has changed since last time i stayed there and change is for better momadu  fenia michelle and jody are what the hotel needed i will recommend thishotelto friends and look forward to my next stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r164448285-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>164448285</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>terrible -- this would be all caps but trip advisor doesnt allow all caps for reviews</t>
+  </si>
+  <si>
+    <t>Dead bugs, room smelled bad, no iron, no ironing board, no coffee maker.... Horrible, We Will Not Be Back.  This appears to be a temporary housing for construction workers.  Lots of sirens at night and lots of bugs.  We Will Not Be Back!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Dead bugs, room smelled bad, no iron, no ironing board, no coffee maker.... Horrible, We Will Not Be Back.  This appears to be a temporary housing for construction workers.  Lots of sirens at night and lots of bugs.  We Will Not Be Back!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r164052618-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>164052618</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Truly a Satisfying Stay, Staff and Service</t>
+  </si>
+  <si>
+    <t>We moved from Washington to Dallas-Mesquite Texas. While looking for an extended stay we came across Crossland Economy Studios. We called and said we were 4 hours out and would not make the 11 pm reservation check-in deadline. The nice lady at the front desk said still come, we will check you in. That was fabulous, no more one night hotel rooms with ridiculous rates. We stayed for the one week at Crossland Economy Studious before getting our apartment. Fenia, Mamadou, Michelle and Jodie we very helpful, courteous, kind and service friendly. I will definitely recommend and if need be, stay at Crossland Economy Studious. You are very much appreciated Crossland Economy Studious in Mesquite, Tx  (75149)Thank you and God Bless!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded June 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2013</t>
+  </si>
+  <si>
+    <t>We moved from Washington to Dallas-Mesquite Texas. While looking for an extended stay we came across Crossland Economy Studios. We called and said we were 4 hours out and would not make the 11 pm reservation check-in deadline. The nice lady at the front desk said still come, we will check you in. That was fabulous, no more one night hotel rooms with ridiculous rates. We stayed for the one week at Crossland Economy Studious before getting our apartment. Fenia, Mamadou, Michelle and Jodie we very helpful, courteous, kind and service friendly. I will definitely recommend and if need be, stay at Crossland Economy Studious. You are very much appreciated Crossland Economy Studious in Mesquite, Tx  (75149)Thank you and God Bless!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r163392100-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>163392100</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>my experience</t>
+  </si>
+  <si>
+    <t>the experience I had at cross lands was very polite and enjoyable  the front end mgr. Mrs.Fenia was a complete joy she was there and took care of my needs concerning my room I had to ask for extra towels along with a carpet cleaning after my 3 yr old son had spilled some chocolate  in the floor I was horrified she was like no problem the maintasnce man was right there  took care of the problem .. I say thank you I stay  in hotels about 150 days a year  and with out a doubt  this is one the top experience I have ever had  being a dad is hard but these people helped in ever way they could thank you  Mrs Fenia Mike young C.E.O Executive Travel &amp; shuttleMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>the experience I had at cross lands was very polite and enjoyable  the front end mgr. Mrs.Fenia was a complete joy she was there and took care of my needs concerning my room I had to ask for extra towels along with a carpet cleaning after my 3 yr old son had spilled some chocolate  in the floor I was horrified she was like no problem the maintasnce man was right there  took care of the problem .. I say thank you I stay  in hotels about 150 days a year  and with out a doubt  this is one the top experience I have ever had  being a dad is hard but these people helped in ever way they could thank you  Mrs Fenia Mike young C.E.O Executive Travel &amp; shuttleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r162570985-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>162570985</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>This place is definitely changing for the better!!</t>
+  </si>
+  <si>
+    <t>I've occupied my room for some time and I can definitely say the location is great! The commute from the hotel to Downtown Dallas is less than 15 minutes by car and the hotel is highly accessible to both shopping and restaurants. Recently management changed and I can definitely say the change is great. Repairs have taken place in the parking lots and common areas and the overall curb appeal (lawn care, etc.) is on the uptick. Fenia, Mamadou, Leo, Jodi and Michelle are class acts. I'm very satisfied with my stay. PL..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r162354955-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>162354955</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Best customer service I ever experience in any hotel. Very professional, great housekeepers, office staff.</t>
+  </si>
+  <si>
+    <t>Scale one to ten, I give crosslands in mesquite, a twenty..would recommend to EVERYONE... Management was excellent. Received outstanding service from stay to exit visit.  Excorted to room, confirmed bed, room, amenities was all working properly and VERY CLEAN. Go experience your stay, ill be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r158708754-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>158708754</t>
@@ -755,7 +987,7 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded April 29, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded April 29, 2013</t>
   </si>
   <si>
     <t>Responded April 29, 2013</t>
@@ -764,10 +996,7 @@
     <t>Cheapest extended stay hotel in Mesquite.  No frills, but the showers were hot and the beds were fine.  Comforters on the beds must have been decades old.  Neighbors were rowdy but friendly.  Garbage truck comes early in the morning to load the dumpster (loudly).More</t>
   </si>
   <si>
-    <t>Drea2013</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r156143334-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r156143334-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>156143334</t>
@@ -785,7 +1014,7 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded April 3, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded April 3, 2013</t>
   </si>
   <si>
     <t>Responded April 3, 2013</t>
@@ -794,7 +1023,7 @@
     <t>I stayed here at Crosslands and it was beyond what I expected for the price. It was walking distance to everything: restaurants, grocery store, family fun, and stores. The staff was friendly and tried to make my stay a pleasant experience. The rooms were clean.  I did wish they had full size refrigerators since I was staying for moreo than a couple weeks on businessi but I made due. I also wished I could get my room cleaned morpeo than once a week but they always were willing to give me clean sheets and towels whenever I asked. For the price and location Crossland was definately worth it. I would definately stay there again.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r154446908-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r154446908-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>154446908</t>
@@ -812,7 +1041,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded March 15, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded March 15, 2013</t>
   </si>
   <si>
     <t>Responded March 15, 2013</t>
@@ -821,10 +1050,7 @@
     <t>The hotel is run by terrorists from Senegal. With the exception of Michele (Michele is outstanding) and Leo, the rest of the staff is rude, discourteous, and obnoxious. Going to the office to pay rent or to ask for supplies, such as soap or toilet paper, is emotionally stressful.More</t>
   </si>
   <si>
-    <t>Psssshhhhh</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r150373502-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r150373502-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>150373502</t>
@@ -842,7 +1068,7 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded January 25, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded January 25, 2013</t>
   </si>
   <si>
     <t>Responded January 25, 2013</t>
@@ -851,7 +1077,7 @@
     <t>Crossland is always my first choice when it comes to an extended stay. The staff is very courteous and alert. The parking lot and surrounding areas are alot nicer then other suggested hotels in the area. Although I did have one incident with the front desk allowing a person access to my room that i specifically asked them not to let in my room. I can understand the mistake seeing that I had given them permission to let her in on previous occasions. They say that nobody is perfect but Crossland is as close as possible to perfect. Thanks ya'll. P.S. The Coke machine keeps taking my money.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r148748757-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r148748757-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>148748757</t>
@@ -869,7 +1095,7 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded January 4, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded January 4, 2013</t>
   </si>
   <si>
     <t>Responded January 4, 2013</t>
@@ -878,10 +1104,7 @@
     <t>they make your stay here comfortable and the customer service is truely the best in town. Great job guys OUTSTADIG JOB!!!!!!!!!I If you fid your self i Dallas this would e the place to stay.Their locatio is great  a aundance of places to eat and shop. They have kitchenettes if you had rather cook .More</t>
   </si>
   <si>
-    <t>LadyB261</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r148332411-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r148332411-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>148332411</t>
@@ -896,7 +1119,7 @@
     <t>the room that was behind us was empty and the alarm was set to go off at 1am. When I called for them to turn the alarm off, Trey stated several times that he was going to turn it off but never did. We had to turn the volume up on our tv to drown out the noise from the alarm that sounded all night long. If you want uncomfortable beds,  noisy rooms with thin walls, and poor customer service, oh, and did I mention bugs!!!!!!! If so, then come here!MoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded January 2, 2013</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded January 2, 2013</t>
   </si>
   <si>
     <t>Responded January 2, 2013</t>
@@ -905,10 +1128,7 @@
     <t>the room that was behind us was empty and the alarm was set to go off at 1am. When I called for them to turn the alarm off, Trey stated several times that he was going to turn it off but never did. We had to turn the volume up on our tv to drown out the noise from the alarm that sounded all night long. If you want uncomfortable beds,  noisy rooms with thin walls, and poor customer service, oh, and did I mention bugs!!!!!!! If so, then come here!More</t>
   </si>
   <si>
-    <t>BigYella69</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147823960-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147823960-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>147823960</t>
@@ -923,7 +1143,7 @@
     <t>Our receptionist Michelle was very courteous and helpful for the three week we where there. Would stay there again when I come to town. Really like the location a lot of places to eat and shop at. Very close to the hey made it easy for me to get around in a city I was in for three weeks.MoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded December 26, 2012</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded December 26, 2012</t>
   </si>
   <si>
     <t>Responded December 26, 2012</t>
@@ -932,10 +1152,7 @@
     <t>Our receptionist Michelle was very courteous and helpful for the three week we where there. Would stay there again when I come to town. Really like the location a lot of places to eat and shop at. Very close to the hey made it easy for me to get around in a city I was in for three weeks.More</t>
   </si>
   <si>
-    <t>mike y</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147674788-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r147674788-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>147674788</t>
@@ -950,7 +1167,7 @@
     <t>I checked in for business with my 3year old son   the staff was very helpful  while I stayed  they took the time to stop and talk to my son the kitchenette was  great to be able to prepaid food for me and my son  everything was there  no surprises all we had to bring was our clothes  I will definitely stay with them again when I go back to DallasMike youngMoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded December 19, 2012</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded December 19, 2012</t>
   </si>
   <si>
     <t>Responded December 19, 2012</t>
@@ -959,10 +1176,7 @@
     <t>I checked in for business with my 3year old son   the staff was very helpful  while I stayed  they took the time to stop and talk to my son the kitchenette was  great to be able to prepaid food for me and my son  everything was there  no surprises all we had to bring was our clothes  I will definitely stay with them again when I go back to DallasMike youngMore</t>
   </si>
   <si>
-    <t>Jerry A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r143007696-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r143007696-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>143007696</t>
@@ -977,7 +1191,7 @@
     <t>It is tired and due an upgrade. Everything is past the "reasonable" usage time. The staff and employees, seem to do the,best with what they have to, work with. A Trucking company uses for housing of new drivers in training. Several, long stay residents use this property as a permanent home. Good location near restaurants. Fair price for what you receive.MoreShow less</t>
   </si>
   <si>
-    <t>DFWCC, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded October 19, 2012</t>
+    <t>DFWCC, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded October 19, 2012</t>
   </si>
   <si>
     <t>Responded October 19, 2012</t>
@@ -986,10 +1200,7 @@
     <t>It is tired and due an upgrade. Everything is past the "reasonable" usage time. The staff and employees, seem to do the,best with what they have to, work with. A Trucking company uses for housing of new drivers in training. Several, long stay residents use this property as a permanent home. Good location near restaurants. Fair price for what you receive.More</t>
   </si>
   <si>
-    <t>promqueen94</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r131353007-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r131353007-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>131353007</t>
@@ -1016,10 +1227,7 @@
     <t>I stayed at this hotel for two nights while in town for a party.  It is a typical one star property but there were a lot of people hanging outside the hotel on Friday night.  The location is great, there are a lot of restaurants nearby.  I was a bit uncomfortable with all of the people hanging around and it was kind of noisy at night.  The room was relatively clean and what you would expect from a one star property.  I travel on a budget and named my own price of $25 on Priceline.  I got what I paid for.  The guy at the front desk was nice...I called a few times trying to find the hotel.More</t>
   </si>
   <si>
-    <t>TheNighthawkBender</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r124459192-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r124459192-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>124459192</t>
@@ -1037,7 +1245,7 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>ChristopherTM, Manager at Crossland Economy Studios - Dallas - Mesquite, responded to this reviewResponded February 27, 2012</t>
+    <t>ChristopherTM, Manager at HomeTowne Studios Dallas - Mesquite, responded to this reviewResponded February 27, 2012</t>
   </si>
   <si>
     <t>Responded February 27, 2012</t>
@@ -1046,10 +1254,7 @@
     <t>The Mesquite Crosslands was my first experience with this brand of hotel. In comparison to other extended stay hotels it was below average. The rooms are quite small even for one person. Hotel staff and location were good perks however. A local trucking company uses this hotel very regularly and typically has over 80% of it occupied at any given time. Therefore I would suggest making a reservation well in advance if you plan on staying here. I actually had to switch rooms after my first week due to this. Talking with some of the truck drivers was an interesting perk as well.Pros: Only pay one-time for WI FI access (most extended stays charge for Internet weekly), good location with many restaurants and mall nearbyCons: Small rooms, hotel has limited kitchenware, small kitchen facilityI would rate this a 5 out of 10 on the extended stay hotel scale.More</t>
   </si>
   <si>
-    <t>whitlighting</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r94296294-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r94296294-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>94296294</t>
@@ -1067,10 +1272,7 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t>willeg1001</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r55577084-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r55577084-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>55577084</t>
@@ -1091,10 +1293,7 @@
     <t>I flew to Misquite for job training with an unnamed trucking company ( on my own dime ), the room was provided for me. My 1st room had never been cleaned since the last person and had a huge hole in the bathroom ceiling and wreeked of crack smoke! The 2nd wasnt much better. Very unsafe location. So bad, I immediatly called a cab, went back to the airport paid for a ticket back home and waited all night for the terminals to reopen. As bad as staying in airports for 2 whole days changing flights 8 times in all was, it was better than staying ONE night in those rooms! I beg of you, I emplore you DO NOT WASTE YOUR $$$. By the way, a cab to the airport costed $72!!More</t>
   </si>
   <si>
-    <t>bnfree</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r51002891-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r51002891-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>51002891</t>
@@ -1112,10 +1311,7 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>Letsjustgetaway</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r34265680-Crossland_Economy_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r34265680-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>34265680</t>
@@ -1138,6 +1334,48 @@
     <t>ROOMS - very adequate for two people. It doesn't seem to be that old so everything works pretty well. Room keys are electronic cards, doors have locks and latches on the inside, good security. The kitchen has an electric stove with two cooking panels, a bar fridge (freezer in the top part of fridge doesn't really freeze), microwave, limited cooking utensils (I had to purchase a cutting knife to slice my meat and vegetables), knives, forks &amp; spoons, a couple of plates, dishes &amp; coffee cups. Air conditioner works great and cools the room down within seconds! TV, table &amp; two chairs, telephone. Window opens about 6 inches &amp; has a bolted in stopper, blinds close completely with no gaps so you have full privacy. Shower works great both hot and cold. Iron &amp; ironing board stored in the corner out of the way.
 LOCATION - Excellent! Right off the freeway, very quiet, opposite a fairly new apartment complex, seems to be quite a nice area. There's a huge shopping mall within walking distance, Kroger grocery store about half a mile walk, parking lot is huge and VERY well lit all night long with floodlights which I found wonderful, definitely makes you feel safer when venturing out at night. Takes about 15 minutes to get to downtown Dallas as it's all freeway.
 PRICE - Book for 1 - 6 nights and you'll pay about $45.99 per night, book for 7...ROOMS - very adequate for two people. It doesn't seem to be that old so everything works pretty well. Room keys are electronic cards, doors have locks and latches on the inside, good security. The kitchen has an electric stove with two cooking panels, a bar fridge (freezer in the top part of fridge doesn't really freeze), microwave, limited cooking utensils (I had to purchase a cutting knife to slice my meat and vegetables), knives, forks &amp; spoons, a couple of plates, dishes &amp; coffee cups. Air conditioner works great and cools the room down within seconds! TV, table &amp; two chairs, telephone. Window opens about 6 inches &amp; has a bolted in stopper, blinds close completely with no gaps so you have full privacy. Shower works great both hot and cold. Iron &amp; ironing board stored in the corner out of the way.LOCATION - Excellent! Right off the freeway, very quiet, opposite a fairly new apartment complex, seems to be quite a nice area. There's a huge shopping mall within walking distance, Kroger grocery store about half a mile walk, parking lot is huge and VERY well lit all night long with floodlights which I found wonderful, definitely makes you feel safer when venturing out at night. Takes about 15 minutes to get to downtown Dallas as it's all freeway.PRICE - Book for 1 - 6 nights and you'll pay about $45.99 per night, book for 7 nights and you'll get the weekly rate of $29.99 per night...I only needed to stay 6 nights here but found it cheaper to stay an extra night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r14754557-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>14754557</t>
+  </si>
+  <si>
+    <t>04/02/2008</t>
+  </si>
+  <si>
+    <t>A bit dodgy</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in Jan 08 during a cross-country trip.  All we needed was a place to sleep. Got it as a 2* thru hotwire for a very cheap rate - and that's what we got.The motel &amp; the clientele seemed dodgy, though the check-in guy was friendly.  Room was fairly big, with kitchenette. Soap was very cheap, glad I brought my own shower gel.Lots of restaurants and fast food joints w/i a short drive.My car was the nicest in the whole lot, and honestly I was worried all night it would be broken into. Fortunately it wasn't.If I ever need to stay in Mesquite again, I would definitely pay more to stay at Courtyard or Fairfield Inn etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in Jan 08 during a cross-country trip.  All we needed was a place to sleep. Got it as a 2* thru hotwire for a very cheap rate - and that's what we got.The motel &amp; the clientele seemed dodgy, though the check-in guy was friendly.  Room was fairly big, with kitchenette. Soap was very cheap, glad I brought my own shower gel.Lots of restaurants and fast food joints w/i a short drive.My car was the nicest in the whole lot, and honestly I was worried all night it would be broken into. Fortunately it wasn't.If I ever need to stay in Mesquite again, I would definitely pay more to stay at Courtyard or Fairfield Inn etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106626-r10051490-HomeTowne_Studios_Dallas_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>10051490</t>
+  </si>
+  <si>
+    <t>10/07/2007</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Not a good place to stay.  I understand that it is a bargain extended-stay place, so my expectations were not high at all.  They were also not met.  My husband and I were alarmed by the shady-looking characters (some shirtless) wandering around the hotel parking lot around midnight.  All the late night activity made us feel a tad uneasy.  There was a cricket in our bathroom.  The bed was hard as a rock with only two thin, flimsy pillows and I woke up the next day feeling like I'd had the tar beaten out of me.  At that point, all I wanted was a hot shower to soothe my muscles.  Unfortunately, the shower handle would (suspiciously) not go all the way to hot, so saying my shower was cool would probably be too kind a statement.  After 11 pm, the office is closed and any and all calls are routed to a woman in the laundry who does not know anything about anything hotel-related (except presumably laundry) and her answer to all questions was to call back at 7 in the morning when the office opened.  The only nice thing I have to say is that the office staff, when present, was pretty friendly and they refunded my money for the second night without hesitation, since we refused to stay another minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>Not a good place to stay.  I understand that it is a bargain extended-stay place, so my expectations were not high at all.  They were also not met.  My husband and I were alarmed by the shady-looking characters (some shirtless) wandering around the hotel parking lot around midnight.  All the late night activity made us feel a tad uneasy.  There was a cricket in our bathroom.  The bed was hard as a rock with only two thin, flimsy pillows and I woke up the next day feeling like I'd had the tar beaten out of me.  At that point, all I wanted was a hot shower to soothe my muscles.  Unfortunately, the shower handle would (suspiciously) not go all the way to hot, so saying my shower was cool would probably be too kind a statement.  After 11 pm, the office is closed and any and all calls are routed to a woman in the laundry who does not know anything about anything hotel-related (except presumably laundry) and her answer to all questions was to call back at 7 in the morning when the office opened.  The only nice thing I have to say is that the office staff, when present, was pretty friendly and they refunded my money for the second night without hesitation, since we refused to stay another minute.More</t>
   </si>
 </sst>
 </file>
@@ -1642,47 +1880,43 @@
       <c r="A2" t="n">
         <v>37423</v>
       </c>
-      <c r="B2" t="n">
-        <v>127605</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1696,7 +1930,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1709,37 +1943,37 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1753,54 +1987,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37423</v>
       </c>
-      <c r="B4" t="n">
-        <v>15120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1818,54 +2048,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37423</v>
       </c>
-      <c r="B5" t="n">
-        <v>127606</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1879,45 +2105,41 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37423</v>
       </c>
-      <c r="B6" t="n">
-        <v>58952</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1936,54 +2158,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37423</v>
       </c>
-      <c r="B7" t="n">
-        <v>127607</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1997,54 +2215,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37423</v>
       </c>
-      <c r="B8" t="n">
-        <v>34665</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2064,54 +2278,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37423</v>
       </c>
-      <c r="B9" t="n">
-        <v>127608</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2125,54 +2335,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37423</v>
       </c>
-      <c r="B10" t="n">
-        <v>127609</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2186,54 +2392,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37423</v>
       </c>
-      <c r="B11" t="n">
-        <v>3598</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2247,63 +2449,59 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37423</v>
       </c>
-      <c r="B12" t="n">
-        <v>127610</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2314,66 +2512,60 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37423</v>
       </c>
-      <c r="B13" t="n">
-        <v>66547</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2381,200 +2573,180 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37423</v>
       </c>
-      <c r="B14" t="n">
-        <v>127611</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37423</v>
       </c>
-      <c r="B15" t="n">
-        <v>8909</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37423</v>
       </c>
-      <c r="B16" t="n">
-        <v>127612</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2582,123 +2754,121 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37423</v>
       </c>
-      <c r="B17" t="n">
-        <v>127613</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
-      </c>
-      <c r="O17" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37423</v>
       </c>
-      <c r="B18" t="n">
-        <v>127614</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2710,45 +2880,41 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37423</v>
       </c>
-      <c r="B19" t="n">
-        <v>127615</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2762,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2777,70 +2943,62 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37423</v>
       </c>
-      <c r="B20" t="n">
-        <v>26066</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2848,187 +3006,161 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37423</v>
       </c>
-      <c r="B21" t="n">
-        <v>127616</v>
-      </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>188</v>
-      </c>
-      <c r="O21" t="s">
-        <v>68</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>189</v>
-      </c>
-      <c r="X21" t="s">
-        <v>190</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37423</v>
       </c>
-      <c r="B22" t="n">
-        <v>127617</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37423</v>
       </c>
-      <c r="B23" t="n">
-        <v>127618</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -3039,92 +3171,80 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>205</v>
-      </c>
-      <c r="X23" t="s">
-        <v>206</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37423</v>
       </c>
-      <c r="B24" t="n">
-        <v>127619</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24" t="s">
-        <v>112</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3132,216 +3252,196 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37423</v>
       </c>
-      <c r="B25" t="n">
-        <v>127620</v>
-      </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
         <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>223</v>
-      </c>
-      <c r="X25" t="s">
-        <v>224</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37423</v>
       </c>
-      <c r="B26" t="n">
-        <v>127621</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37423</v>
       </c>
-      <c r="B27" t="n">
-        <v>127622</v>
-      </c>
-      <c r="C27" t="s">
-        <v>236</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>242</v>
-      </c>
-      <c r="O27" t="s">
-        <v>91</v>
-      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
         <v>3</v>
       </c>
       <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
         <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3350,89 +3450,77 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>243</v>
-      </c>
-      <c r="X27" t="s">
-        <v>244</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37423</v>
       </c>
-      <c r="B28" t="n">
-        <v>127623</v>
-      </c>
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>252</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
         <v>3</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -3445,49 +3533,49 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3496,89 +3584,81 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>262</v>
-      </c>
-      <c r="X29" t="s">
-        <v>263</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37423</v>
       </c>
-      <c r="B30" t="n">
-        <v>127624</v>
-      </c>
-      <c r="C30" t="s">
-        <v>265</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -3591,43 +3671,43 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
         <v>4</v>
@@ -3643,132 +3723,128 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="X31" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="Y31" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37423</v>
       </c>
-      <c r="B32" t="n">
-        <v>127625</v>
-      </c>
-      <c r="C32" t="s">
-        <v>284</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37423</v>
       </c>
-      <c r="B33" t="n">
-        <v>127626</v>
-      </c>
-      <c r="C33" t="s">
-        <v>293</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
@@ -3788,142 +3864,126 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>299</v>
-      </c>
-      <c r="X33" t="s">
-        <v>300</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37423</v>
       </c>
-      <c r="B34" t="n">
-        <v>127627</v>
-      </c>
-      <c r="C34" t="s">
-        <v>302</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>308</v>
-      </c>
-      <c r="X34" t="s">
-        <v>309</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37423</v>
       </c>
-      <c r="B35" t="n">
-        <v>7196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>311</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
@@ -3933,78 +3993,70 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>317</v>
-      </c>
-      <c r="X35" t="s">
-        <v>318</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37423</v>
       </c>
-      <c r="B36" t="n">
-        <v>127628</v>
-      </c>
-      <c r="C36" t="s">
-        <v>320</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
         <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4014,147 +4066,139 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37423</v>
       </c>
-      <c r="B37" t="n">
-        <v>127629</v>
-      </c>
-      <c r="C37" t="s">
-        <v>330</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="X37" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37423</v>
       </c>
-      <c r="B38" t="n">
-        <v>127630</v>
-      </c>
-      <c r="C38" t="s">
-        <v>340</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4163,144 +4207,140 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>292</v>
+      </c>
+      <c r="X38" t="s">
+        <v>293</v>
+      </c>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37423</v>
       </c>
-      <c r="B39" t="n">
-        <v>127631</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="K39" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
+        <v>301</v>
+      </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37423</v>
       </c>
-      <c r="B40" t="n">
-        <v>127632</v>
-      </c>
-      <c r="C40" t="s">
-        <v>355</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>361</v>
-      </c>
-      <c r="O40" t="s">
-        <v>112</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4308,66 +4348,58 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37423</v>
       </c>
-      <c r="B41" t="n">
-        <v>127633</v>
-      </c>
-      <c r="C41" t="s">
-        <v>362</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>368</v>
-      </c>
-      <c r="O41" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4379,7 +4411,1184 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>318</v>
+      </c>
+      <c r="O42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>319</v>
+      </c>
+      <c r="X42" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>328</v>
+      </c>
+      <c r="X43" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>346</v>
+      </c>
+      <c r="X45" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J46" t="s">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s">
+        <v>352</v>
+      </c>
+      <c r="L46" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>355</v>
+      </c>
+      <c r="X46" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>354</v>
+      </c>
+      <c r="O47" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>363</v>
+      </c>
+      <c r="X47" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
+      <c r="J48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K48" t="s">
         <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>370</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>371</v>
+      </c>
+      <c r="X48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K49" t="s">
+        <v>377</v>
+      </c>
+      <c r="L49" t="s">
+        <v>378</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>379</v>
+      </c>
+      <c r="X49" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>383</v>
+      </c>
+      <c r="J50" t="s">
+        <v>384</v>
+      </c>
+      <c r="K50" t="s">
+        <v>385</v>
+      </c>
+      <c r="L50" t="s">
+        <v>386</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>336</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>387</v>
+      </c>
+      <c r="X50" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>396</v>
+      </c>
+      <c r="X51" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>405</v>
+      </c>
+      <c r="X52" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" t="s">
+        <v>410</v>
+      </c>
+      <c r="K53" t="s">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s">
+        <v>412</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" t="s">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>422</v>
+      </c>
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L55" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>426</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" t="s">
+        <v>429</v>
+      </c>
+      <c r="K56" t="s">
+        <v>430</v>
+      </c>
+      <c r="L56" t="s">
+        <v>431</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>435</v>
+      </c>
+      <c r="J57" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>439</v>
+      </c>
+      <c r="O57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37423</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" t="s">
+        <v>444</v>
+      </c>
+      <c r="L58" t="s">
+        <v>445</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
